--- a/Tests Unitaires.xlsx
+++ b/Tests Unitaires.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\exos\16.TP_NODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stax\Google Drive\IMIE\COURS\28  - STRATEGIE DE TESTS\projet\REDIR-CDPN-DL17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Tests Unitaires" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" refMode="R1C1"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -53,9 +53,6 @@
     <t>bob@gmail.com</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>claire.voila.fr</t>
   </si>
   <si>
@@ -132,12 +129,45 @@
   </si>
   <si>
     <t>Se connecter</t>
+  </si>
+  <si>
+    <t>http://www.google.fr</t>
+  </si>
+  <si>
+    <t>Test url valide</t>
+  </si>
+  <si>
+    <t>Test url invalide</t>
+  </si>
+  <si>
+    <t>http//.google</t>
+  </si>
+  <si>
+    <t>False : Message de type erreur "Votre email n'est pas valide"</t>
+  </si>
+  <si>
+    <t>False : Message de type erreur "L'url indiquée n'est pas valide"</t>
+  </si>
+  <si>
+    <t>Ajouter des url</t>
+  </si>
+  <si>
+    <t>urlValidator()</t>
+  </si>
+  <si>
+    <t>Dans le cas où X utilisateurs veulent minifier la meme url ? &gt; possibilités non infinies ?</t>
+  </si>
+  <si>
+    <t>Supression des url</t>
+  </si>
+  <si>
+    <t>Redirection des utilisateurs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -171,15 +201,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -187,12 +223,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -208,7 +281,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -526,28 +609,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
     <col min="4" max="4" width="38.42578125" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -566,7 +649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -583,18 +666,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
@@ -605,16 +688,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -622,16 +705,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -639,16 +722,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -656,16 +739,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -673,16 +756,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -690,16 +773,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -707,16 +790,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -724,27 +807,27 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -763,18 +846,145 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16"/>
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="A25:E25"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F17:J18"/>
+    <mergeCell ref="A22:E22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C18" r:id="rId2"/>
+    <hyperlink ref="C19" r:id="rId3" display="http://www.google.fr"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Tests Unitaires.xlsx
+++ b/Tests Unitaires.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -158,17 +158,56 @@
     <t>Dans le cas où X utilisateurs veulent minifier la meme url ? &gt; possibilités non infinies ?</t>
   </si>
   <si>
-    <t>Supression des url</t>
-  </si>
-  <si>
     <t>Redirection des utilisateurs</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>/register</t>
+  </si>
+  <si>
+    <t>Test idUrl valide</t>
+  </si>
+  <si>
+    <t>Test idUrl invalide</t>
+  </si>
+  <si>
+    <t>id=1</t>
+  </si>
+  <si>
+    <t>id=null / id=aaa</t>
+  </si>
+  <si>
+    <t>False Message d'erreur :"Impossible de trouver l'url indiqué"</t>
+  </si>
+  <si>
+    <t>idValidator</t>
+  </si>
+  <si>
+    <t>/connect</t>
+  </si>
+  <si>
+    <t>/add-url</t>
+  </si>
+  <si>
+    <t>/remove-url?id=999</t>
+  </si>
+  <si>
+    <t>/remove-url?id=error</t>
+  </si>
+  <si>
+    <t>Suppression des url</t>
+  </si>
+  <si>
+    <t>/redirect?url=http://…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +239,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -215,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -260,28 +306,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -293,6 +379,57 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -609,375 +746,495 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" customWidth="1"/>
+    <col min="5" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="F2" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="F3" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="F4" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="F5" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="F6" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="F7" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="F8" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="F9" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="F10" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="F11" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+      <c r="F12" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="27"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="16"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>1</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
         <v>2</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="F19" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
+        <v>1</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <v>2</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25"/>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B27" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C27" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E27" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G18:J19"/>
+    <mergeCell ref="A26:E26"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F17:J18"/>
-    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>

--- a/Tests Unitaires.xlsx
+++ b/Tests Unitaires.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stax\Google Drive\IMIE\COURS\28  - STRATEGIE DE TESTS\projet\REDIR-CDPN-DL17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\exos\16.TP_NODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -197,16 +197,19 @@
     <t>/remove-url?id=error</t>
   </si>
   <si>
-    <t>Suppression des url</t>
-  </si>
-  <si>
     <t>/redirect?url=http://…</t>
+  </si>
+  <si>
+    <t>www.google.fr</t>
+  </si>
+  <si>
+    <t>.google</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,18 +374,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -400,9 +391,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
@@ -425,11 +413,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -746,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,487 +764,513 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="16"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="22" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="27"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="28"/>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="16"/>
+      <c r="F17" s="11"/>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="A18" s="11">
         <v>1</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="A19" s="11">
         <v>2</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-    </row>
-    <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>4</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B23" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
         <v>1</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B24" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D24" s="16" t="s">
         <v>6</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="26"/>
-    </row>
-    <row r="24" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
-        <v>2</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="18"/>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>2</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25"/>
-      <c r="G25" s="23"/>
-    </row>
-    <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A26" s="15" t="s">
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26"/>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A27" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B28" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E28" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16" t="s">
-        <v>58</v>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="G18:J19"/>
-    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C18" r:id="rId2"/>
     <hyperlink ref="C19" r:id="rId3" display="http://www.google.fr"/>
+    <hyperlink ref="C20" r:id="rId4"/>
+    <hyperlink ref="C21" r:id="rId5" display="http://www.google.fr"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Tests Unitaires.xlsx
+++ b/Tests Unitaires.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\exos\16.TP_NODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stax\Google Drive\IMIE\COURS\28  - STRATEGIE DE TESTS\projet\REDIR-CDPN-DL17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -204,12 +204,15 @@
   </si>
   <si>
     <t>.google</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -751,7 +754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -1134,7 +1137,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>59</v>
